--- a/biology/Botanique/Desc/Desc..xlsx
+++ b/biology/Botanique/Desc/Desc..xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bernard Descoings, né le 7 septembre 1931 dans le 14e arrondissement de Paris, et décédé le 23 octobre 2018 à Largentière[1], est un botaniste et ingénieur agronome français qui travailla notamment au Centre d'études phytosociologiques et écologiques Louis-Emberger de Montpellier et se spécialisa dans la flore africaine.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bernard Descoings, né le 7 septembre 1931 dans le 14e arrondissement de Paris, et décédé le 23 octobre 2018 à Largentière, est un botaniste et ingénieur agronome français qui travailla notamment au Centre d'études phytosociologiques et écologiques Louis-Emberger de Montpellier et se spécialisa dans la flore africaine.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ingénieur agronome (ENSAM Montpellier 1953), diplômé d’Écologie végétale, Docteur ès Sciences naturelles (Montpellier 1976), il a effectué toute sa carrière dans le cadre de l’ORSTOM (Office de la recherche Scientifique et Technique Outre-Mer), avec une longue période de détachement au C.N.R.S.
 Il a été affecté ou a conduit de nombreuses missions notamment à Madagascar, au Congo Brazzaville, au Gabon, au Burkina-Faso et en Guyane française.
@@ -546,7 +560,9 @@
           <t>Quelques publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1967. Vitacées. Leeacées, volume 124 de Flore de Madagascar et des Comores. Flore du Gabon, éd. Muséum national d'histoire naturelle, Laboratoire de phanérogamie, 169 pp.
 1971. Méthode de description des formations herbeuses intertropicales par la structure de la végétation, éd. Candollea 26: 223-257. 1 f. 8 pl.
@@ -590,7 +606,9 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Une quinzaine d'espèces ont été nommées en son honneur, dont:
 (Aloaceae) Aloe descoingsii Reynolds
